--- a/Standards_Program/TC_policy_directives/policy_directives.xlsx
+++ b/Standards_Program/TC_policy_directives/policy_directives.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11013"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11110"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/scott/Documents/policy/Standards_Program/TC_policy_directives/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/scott/Documents/GitHub/policy/Standards_Program/TC_policy_directives/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10941B3B-7215-1D42-BE96-2182E43619B8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B88A6F4-3A78-2B4B-A123-673D82DA8B80}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="940" yWindow="460" windowWidth="27720" windowHeight="17460" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="170">
   <si>
     <t>date</t>
   </si>
@@ -761,6 +761,18 @@
   </si>
   <si>
     <t>standard, coordinate reference system</t>
+  </si>
+  <si>
+    <t>standard, collaboration</t>
+  </si>
+  <si>
+    <t>All OGC API SWGs will work on their respective standards with other OGC API SWGs and the OWS Common SWG and report on the interaction with those SWGs to ensure coherence (with respect to OGC Web API Guidelines, OGC API - Common, and reusability of extensions) of standards in advance of OAB review. OAB will develop a template for the review. If the OAB determines that sufficient review has not taken place, the submitting SWG will be instructed to perform further review.
+OAB will deliver a template by the end of 2019. OGC API SWGs currently working will perform coherence review as described above over at least the time required to receive the template.
+This motion does not preclude formation of a SWG, it only applies to work undertaken by an existing SWG.
+This coordination effort occurs after the formation of a SWG and before OAB review of a candidate standard for public RFC.</t>
+  </si>
+  <si>
+    <t>OGC API coordination</t>
   </si>
 </sst>
 </file>
@@ -1109,10 +1121,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G47"/>
+  <dimension ref="A1:G48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A44" workbookViewId="0">
-      <selection activeCell="G47" sqref="G47"/>
+    <sheetView tabSelected="1" topLeftCell="A45" workbookViewId="0">
+      <selection activeCell="F49" sqref="F49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -2151,6 +2163,26 @@
         <v>165</v>
       </c>
     </row>
+    <row r="48" spans="1:7" ht="221">
+      <c r="A48" s="1">
+        <v>47</v>
+      </c>
+      <c r="B48" s="2">
+        <v>43770</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="G48" s="1" t="s">
+        <v>168</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Standards_Program/TC_policy_directives/policy_directives.xlsx
+++ b/Standards_Program/TC_policy_directives/policy_directives.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/scott/Documents/GitHub/policy/Standards_Program/TC_policy_directives/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B88A6F4-3A78-2B4B-A123-673D82DA8B80}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F676CBF-85CD-8542-9F2F-5B412E7F77FA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="940" yWindow="460" windowWidth="27720" windowHeight="17460" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="173">
   <si>
     <t>date</t>
   </si>
@@ -773,6 +773,15 @@
   </si>
   <si>
     <t>OGC API coordination</t>
+  </si>
+  <si>
+    <t>Standards Working Group, Domain Working Group,Technical Committee</t>
+  </si>
+  <si>
+    <t>SWG to DWG assignment</t>
+  </si>
+  <si>
+    <t>All SWGs will be assigned to a host DWG per https://portal.opengeospatial.org/files/?artifact_id=90765&amp;version=1 [OGC 19-074]. Revision 28 of the TC Policies and Procedures will include a process for managing and assigning SWG-to-DWG relationships.</t>
   </si>
 </sst>
 </file>
@@ -1121,10 +1130,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G48"/>
+  <dimension ref="A1:G49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A45" workbookViewId="0">
-      <selection activeCell="F49" sqref="F49"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="G50" sqref="G50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -2183,6 +2192,26 @@
         <v>168</v>
       </c>
     </row>
+    <row r="49" spans="1:7" ht="85">
+      <c r="A49" s="1">
+        <v>48</v>
+      </c>
+      <c r="B49" s="2">
+        <v>43770</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="F49" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="G49" s="1" t="s">
+        <v>172</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Standards_Program/TC_policy_directives/policy_directives.xlsx
+++ b/Standards_Program/TC_policy_directives/policy_directives.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11110"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10810"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/scott/Documents/GitHub/policy/Standards_Program/TC_policy_directives/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F676CBF-85CD-8542-9F2F-5B412E7F77FA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2DF1EF8-7E45-4D41-98CF-9517B39730EF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="940" yWindow="460" windowWidth="27720" windowHeight="17460" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="175">
   <si>
     <t>date</t>
   </si>
@@ -783,12 +783,18 @@
   <si>
     <t>All SWGs will be assigned to a host DWG per https://portal.opengeospatial.org/files/?artifact_id=90765&amp;version=1 [OGC 19-074]. Revision 28 of the TC Policies and Procedures will include a process for managing and assigning SWG-to-DWG relationships.</t>
   </si>
+  <si>
+    <t>OGC standards terminology</t>
+  </si>
+  <si>
+    <t>see adoc file</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -813,6 +819,12 @@
       <name val="Helvetica"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF172B4D"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -835,7 +847,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -847,6 +859,12 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1130,10 +1148,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G49"/>
+  <dimension ref="A1:G50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="G50" sqref="G50"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="G51" sqref="G51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -2212,6 +2230,26 @@
         <v>172</v>
       </c>
     </row>
+    <row r="50" spans="1:7" ht="51">
+      <c r="A50" s="1">
+        <v>49</v>
+      </c>
+      <c r="B50" s="5">
+        <v>44002</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="F50" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="G50" s="1" t="s">
+        <v>174</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Standards_Program/TC_policy_directives/policy_directives.xlsx
+++ b/Standards_Program/TC_policy_directives/policy_directives.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10810"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10314"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/scott/Documents/GitHub/policy/Standards_Program/TC_policy_directives/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2DF1EF8-7E45-4D41-98CF-9517B39730EF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4B2B977-B1B1-284D-AC24-4C29481A34C4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="940" yWindow="460" windowWidth="27720" windowHeight="17460" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="176">
   <si>
     <t>date</t>
   </si>
@@ -788,6 +788,9 @@
   </si>
   <si>
     <t>see adoc file</t>
+  </si>
+  <si>
+    <t>standard, template, collaboration</t>
   </si>
 </sst>
 </file>
@@ -847,7 +850,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -865,6 +868,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1148,10 +1154,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G50"/>
+  <dimension ref="A1:G51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="G51" sqref="G51"/>
+    <sheetView tabSelected="1" topLeftCell="A47" workbookViewId="0">
+      <selection activeCell="G52" sqref="G52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -2250,6 +2256,26 @@
         <v>174</v>
       </c>
     </row>
+    <row r="51" spans="1:7" ht="34">
+      <c r="A51" s="1">
+        <v>50</v>
+      </c>
+      <c r="B51" s="7">
+        <v>44281</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="F51" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="G51" s="1" t="s">
+        <v>174</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Standards_Program/TC_policy_directives/policy_directives.xlsx
+++ b/Standards_Program/TC_policy_directives/policy_directives.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10314"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10111"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/scott/Documents/GitHub/policy/Standards_Program/TC_policy_directives/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4B2B977-B1B1-284D-AC24-4C29481A34C4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF9ED8DF-C486-8D48-A582-14D26655D45F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="940" yWindow="460" windowWidth="27720" windowHeight="17460" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="940" yWindow="500" windowWidth="27720" windowHeight="17460" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="directives" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="177">
   <si>
     <t>date</t>
   </si>
@@ -791,6 +791,9 @@
   </si>
   <si>
     <t>standard, template, collaboration</t>
+  </si>
+  <si>
+    <t>OGC API - Common</t>
   </si>
 </sst>
 </file>
@@ -1154,10 +1157,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G51"/>
+  <dimension ref="A1:G52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A47" workbookViewId="0">
-      <selection activeCell="G52" sqref="G52"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="D52" sqref="D52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -2276,6 +2279,26 @@
         <v>174</v>
       </c>
     </row>
+    <row r="52" spans="1:7" ht="34">
+      <c r="A52" s="1">
+        <v>51</v>
+      </c>
+      <c r="B52" s="7">
+        <v>44594</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="F52" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="G52" s="1" t="s">
+        <v>174</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
